--- a/data/analysis.xlsx
+++ b/data/analysis.xlsx
@@ -2,29 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\PyCharm\product-review\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2964" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2964" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="rating_per_cat" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="rating_per_cat" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="49">
   <si>
     <t>category</t>
   </si>
@@ -138,6 +141,39 @@
   </si>
   <si>
     <t>5 stars</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>count_reviews</t>
+  </si>
+  <si>
+    <t>day_of_week</t>
+  </si>
+  <si>
+    <t>Sum of count_reviews</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thur</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
   </si>
 </sst>
 </file>
@@ -642,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -657,6 +693,9 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -702,11 +741,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1716,11 +1751,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="240151208"/>
-        <c:axId val="240748440"/>
+        <c:axId val="276030840"/>
+        <c:axId val="276030448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240151208"/>
+        <c:axId val="276030840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,7 +1798,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240748440"/>
+        <c:crossAx val="276030448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1771,7 +1806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240748440"/>
+        <c:axId val="276030448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,7 +1857,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240151208"/>
+        <c:crossAx val="276030840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1836,7 +1871,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2940,8 +2974,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="468884200"/>
-        <c:axId val="468884592"/>
+        <c:axId val="278336080"/>
+        <c:axId val="276939776"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3156,7 +3190,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1</c15:sqref>
@@ -3185,7 +3219,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$3:$A$26</c15:sqref>
@@ -3271,7 +3305,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$3:$H$26</c15:sqref>
@@ -3362,7 +3396,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="468884200"/>
+        <c:axId val="278336080"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3405,7 +3439,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468884592"/>
+        <c:crossAx val="276939776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3413,7 +3447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468884592"/>
+        <c:axId val="276939776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3464,7 +3498,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468884200"/>
+        <c:crossAx val="278336080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3545,6 +3579,892 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[analysis.xlsx]Sheet3!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>#</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> reviews per day</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$F$4:$F$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$4:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>69441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75351</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76041</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66755</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73633</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82244</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82634</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76683</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70287</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66947</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81392</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56247</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98344</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77332</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70682</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>78239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="355690744"/>
+        <c:axId val="355691528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="355690744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355691528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355691528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355690744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3586,6 +4506,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4633,6 +5593,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4686,6 +6149,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4758,6 +6256,70 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Xin Pang" refreshedDate="42990.498394444447" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="31">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C32" sheet="Sheet3"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="day" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="31" count="31">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="30"/>
+        <n v="31"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="day_of_week" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7" count="7">
+        <n v="6"/>
+        <n v="7"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="count_reviews" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="56247" maxValue="99698"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="120">
   <r>
@@ -5359,12 +6921,172 @@
     <x v="23"/>
     <x v="4"/>
     <n v="16237"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="31">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="69441"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="83487"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="87006"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="86962"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="81781"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="84130"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="80355"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="72800"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="74489"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="91795"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="75351"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <n v="87054"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <n v="82197"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="6"/>
+    <n v="76041"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="66755"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="73633"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="85204"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="3"/>
+    <n v="82244"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="4"/>
+    <n v="98639"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="5"/>
+    <n v="82634"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="6"/>
+    <n v="76683"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="70287"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="66947"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="81392"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="3"/>
+    <n v="99698"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="4"/>
+    <n v="56247"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="5"/>
+    <n v="98344"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="6"/>
+    <n v="77332"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="69203"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="70682"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="78239"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A3:G29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5520,6 +7242,307 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="F3:G35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="32">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="32">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of count_reviews" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="11">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="29"/>
           </reference>
         </references>
       </pivotArea>
@@ -6428,7 +8451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -7492,6 +9515,904 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>69441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>83487</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>87006</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>69441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>86962</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>83487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>81781</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>87006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>84130</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>86962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>80355</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>81781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>72800</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>84130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>74489</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3">
+        <v>80355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>91795</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>72800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>75351</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3">
+        <v>74489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>87054</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <v>91795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>82197</v>
+      </c>
+      <c r="F14" s="2">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3">
+        <v>75351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>76041</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3">
+        <v>87054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>66755</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3">
+        <v>82197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>73633</v>
+      </c>
+      <c r="F17" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3">
+        <v>76041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>85204</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3">
+        <v>66755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>82244</v>
+      </c>
+      <c r="F19" s="2">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3">
+        <v>73633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>98639</v>
+      </c>
+      <c r="F20" s="2">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3">
+        <v>85204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>82634</v>
+      </c>
+      <c r="F21" s="2">
+        <v>18</v>
+      </c>
+      <c r="G21" s="3">
+        <v>82244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>76683</v>
+      </c>
+      <c r="F22" s="2">
+        <v>19</v>
+      </c>
+      <c r="G22" s="3">
+        <v>98639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>70287</v>
+      </c>
+      <c r="F23" s="2">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3">
+        <v>82634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>66947</v>
+      </c>
+      <c r="F24" s="2">
+        <v>21</v>
+      </c>
+      <c r="G24" s="3">
+        <v>76683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>81392</v>
+      </c>
+      <c r="F25" s="2">
+        <v>22</v>
+      </c>
+      <c r="G25" s="3">
+        <v>70287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>99698</v>
+      </c>
+      <c r="F26" s="2">
+        <v>23</v>
+      </c>
+      <c r="G26" s="3">
+        <v>66947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>56247</v>
+      </c>
+      <c r="F27" s="2">
+        <v>24</v>
+      </c>
+      <c r="G27" s="3">
+        <v>81392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>98344</v>
+      </c>
+      <c r="F28" s="2">
+        <v>25</v>
+      </c>
+      <c r="G28" s="3">
+        <v>99698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>77332</v>
+      </c>
+      <c r="F29" s="2">
+        <v>26</v>
+      </c>
+      <c r="G29" s="3">
+        <v>56247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>69203</v>
+      </c>
+      <c r="F30" s="2">
+        <v>27</v>
+      </c>
+      <c r="G30" s="3">
+        <v>98344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>70682</v>
+      </c>
+      <c r="F31" s="2">
+        <v>28</v>
+      </c>
+      <c r="G31" s="3">
+        <v>77332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>78239</v>
+      </c>
+      <c r="F32" s="2">
+        <v>29</v>
+      </c>
+      <c r="G32" s="3">
+        <v>69203</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F33" s="2">
+        <v>30</v>
+      </c>
+      <c r="G33" s="3">
+        <v>70682</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F34" s="2">
+        <v>31</v>
+      </c>
+      <c r="G34" s="3">
+        <v>78239</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2467052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>69441</v>
+      </c>
+      <c r="J3">
+        <v>83487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>87006</v>
+      </c>
+      <c r="D4">
+        <v>87006</v>
+      </c>
+      <c r="E4">
+        <v>86962</v>
+      </c>
+      <c r="F4">
+        <v>81781</v>
+      </c>
+      <c r="G4">
+        <v>84130</v>
+      </c>
+      <c r="H4">
+        <v>80355</v>
+      </c>
+      <c r="I4">
+        <v>72800</v>
+      </c>
+      <c r="J4">
+        <v>74489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>86962</v>
+      </c>
+      <c r="D5" s="11">
+        <v>91795</v>
+      </c>
+      <c r="E5" s="11">
+        <v>75351</v>
+      </c>
+      <c r="F5" s="11">
+        <v>87054</v>
+      </c>
+      <c r="G5" s="11">
+        <v>82197</v>
+      </c>
+      <c r="H5" s="11">
+        <v>76041</v>
+      </c>
+      <c r="I5" s="11">
+        <v>66755</v>
+      </c>
+      <c r="J5" s="11">
+        <v>73633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>81781</v>
+      </c>
+      <c r="D6">
+        <v>85204</v>
+      </c>
+      <c r="E6">
+        <v>82244</v>
+      </c>
+      <c r="F6">
+        <v>98639</v>
+      </c>
+      <c r="G6">
+        <v>82634</v>
+      </c>
+      <c r="H6">
+        <v>76683</v>
+      </c>
+      <c r="I6">
+        <v>70287</v>
+      </c>
+      <c r="J6">
+        <v>66947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>84130</v>
+      </c>
+      <c r="D7" s="11">
+        <v>81392</v>
+      </c>
+      <c r="E7" s="11">
+        <v>99698</v>
+      </c>
+      <c r="F7" s="11">
+        <v>56247</v>
+      </c>
+      <c r="G7" s="11">
+        <v>98344</v>
+      </c>
+      <c r="H7" s="11">
+        <v>77332</v>
+      </c>
+      <c r="I7" s="11">
+        <v>69203</v>
+      </c>
+      <c r="J7" s="11">
+        <v>70682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>80355</v>
+      </c>
+      <c r="D8">
+        <v>78239</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>72800</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>74489</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>91795</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>75351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>87054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>82197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>76041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>66755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>73633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>85204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>82244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>98639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>82634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>76683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>70287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>66947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>81392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>99698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>56247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>98344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>77332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>69203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>70682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>78239</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:J8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
